--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_17.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,133 +488,140 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1333333333333333</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'D/b7']]</t>
-        </is>
+          <t>isophonics_48</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'E']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(31.439841, 35.781972)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(14.402743, 18.779705)]</t>
+          <t>[('0:01:22.290863', '0:01:30.185647')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
+          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(39.58, 48.9)]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(23.04, 32.8)]</t>
+          <t>[('0:00:36.640000', '0:00:38.520000'), ('0:00:36.340000', '0:00:37.980000'), ('0:00:09.780000', '0:00:14.360000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:12.420000', '0:00:27.080000'), ('0:00:55.720000', '0:01:04.640000'), ('0:00:00.820000', '0:00:06.760000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_35</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1252173913043478</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['G:7', 'C', 'C/7']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(12.82, 24.9)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(1.36, 6.46)]</t>
+          <t>[('0:00:12.851927', '0:00:16.810929')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:19.360000', '0:00:21.740000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
@@ -618,133 +630,140 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_255</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1483870967741935</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['G:min', 'C:min', 'G:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(6.8, 12.66)]</t>
+          <t>[['D:min', 'G:min/5', 'D:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(16.52, 25.4)]</t>
+          <t>[('0:00:14.520000', '0:00:21.680000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:27.789047', '0:00:31.109501')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_150</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_98</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(0.7, 5.28)]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(14.52, 28.3)]</t>
+          <t>[('0:00:00.780000', '0:00:09.740000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:45.260000', '0:00:57.580000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_64</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_19</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(43.18, 45.1)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(1.54, 6.88)]</t>
+          <t>[('0:00:00.820000', '0:02:25.840000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:00.360000', '0:02:07.800000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
@@ -753,452 +772,396 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_77</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_150</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min']]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(13.66, 17.9)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(34.94, 36.86)]</t>
+          <t>[('0:00:48.460000', '0:01:01.580000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:00.780000', '0:00:09.740000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(53.82, 62.52)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(19.78, 25.82)]</t>
+          <t>[('0:01:23.100000', '0:01:30.020000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:39.840000', '0:00:47.280000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_93</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_234</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['C:maj/E', 'G:7', 'C:maj']]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(36.6, 39.0)]</t>
+          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(38.9, 44.36)]</t>
+          <t>[('0:00:58.400000', '0:01:00.680000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:15.439000', '0:01:23.381000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_238</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_219</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1696969696969697</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C', 'F:min', 'F:min/5']]</t>
-        </is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1652173913043478</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A', 'D:min', 'D:min']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(41.384331, 46.388231)]</t>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(75.058526, 99.567188)]</t>
+          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
+          <t>[('0:00:03', '0:00:05.280000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:2EqlS6tkEnglzr7tkKAAYD</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.05796064400715564</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_48</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(0.82, 6.76)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(41.58, 43.48)]</t>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:22.290863', '0:01:30.185647')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_42</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj']]</t>
+          <t>[['G#:maj', 'D#:(3,5,b7,b9)', 'G#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(32.98, 35.26)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(35.22, 40.0)]</t>
+          <t>[('0:00:20.540000', '0:00:23.160000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:53.160000', '0:00:55.820000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_194</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_92</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['C:min', 'G:7/D', 'C:min/D#', 'C:maj/E', 'F:min', 'D:hdim7', 'C:min', 'C#:maj', 'G#:maj/C', 'G:7', 'G#:maj'], ['C:7/A#', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min/G#', 'C:maj/G', 'F:min', 'C:min/G']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(16.88, 32.5)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(0.56, 6.3)]</t>
+          <t>[('0:00:02', '0:00:11.360000'), ('0:01:18.100000', '0:01:26.060000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.360000', '0:00:08.660000'), ('0:01:13.400000', '0:01:21.180000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7556818181818181</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(27.36, 34.92), (79.42, 86.02)]</t>
+          <t>[['C', 'G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(87.68, 98.02), (43.18, 45.1)]</t>
+          <t>[('0:00:21.280000', '0:00:49.280000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:01:10.519024', '0:01:22.732721')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_193</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_66</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(47.58, 50.04)]</t>
+          <t>[('0:00:16.060000', '0:01:39.240000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(9.62, 14.18), (1.88, 6.56)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(84.0, 90.84), (13.74, 22.56)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:14.760000', '0:01:42.460000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
